--- a/InputFiles/ICDC/TC01_ICDC_OSA01_StudyType-Genomics.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_OSA01_StudyType-Genomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB4ADC-9F14-416B-A049-CFC3CFCE8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62588107-9CC7-451D-AE79-1D12164DDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,18 +74,18 @@
     diag.disease_term AS "Diagnosis",
     diag.stage_of_disease AS "Stage Of Disease",
     CASE 
-    WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
-    THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
-    ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
-END AS "Age", 
+        WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
+        THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
+        ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
+    END AS "Age", 
     COALESCE(TRIM(dmg.sex), '') AS "Sex",   
     COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
     COALESCE(
-    CASE 
-        WHEN dmg.weight = CAST(dmg.weight AS INT) THEN TRIM(CAST(dmg.weight AS TEXT), '.0')
-        ELSE CAST(ROUND(dmg.weight, 1) AS TEXT)
-    END, 
-'') AS "Weight (kg)",        
+         CASE 
+            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
+            ELSE dmg.weight 
+        END, 
+    '') AS "Weight (kg)",                 
     COALESCE(diag.best_response, '') AS "Response to Treatment",  
     COALESCE(coh.cohort_description, '') AS "Cohort"  
 FROM 
@@ -96,58 +96,16 @@
     df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
 JOIN 
     df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN
-    df_cohort coh ON coh."study.clinical_study_designation" = st.clinical_study_designation
+    df_cohort coh ON c."cohort.cohort_id" = coh.cohort_record_id
 WHERE
-    st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics'
+    st.clinical_study_designation = 'OSA01' 
+    AND st.clinical_study_type = 'Genomics'
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_record_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics';</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -168,25 +126,20 @@
 JOIN 
     df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-   st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics'
+    st.clinical_study_designation = 'OSA01' 
+    AND st.clinical_study_type = 'Genomics'
 ORDER BY 
     smp.sample_id ASC
 LIMIT 100;</t>
@@ -235,7 +188,7 @@
             THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
             ELSE ROUND(cf.file_size, 2) || ' Bytes'
         END
-END AS "Size",
+    END AS "Size",
     'sample' AS "Association",
     cf.file_description AS "Description",
     smp.sample_id AS "Sample ID",
@@ -251,21 +204,12 @@
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
     df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
 JOIN 
     df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-    st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics'
+    st.clinical_study_designation = 'OSA01' 
+    AND st.clinical_study_type = 'Genomics'
 ORDER BY 
     cf.file_name ASC
 LIMIT 100;</t>
@@ -303,48 +247,47 @@
     END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
-    df_case_file cf
-JOIN 
-    df_sample smp ON cf."sample.sample_id" = smp.sample_id
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+    df_study_file sf
+JOIN 
+    df_study st ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-    st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics'
+    st.clinical_study_designation = 'OSA01' 
+    AND st.clinical_study_type = 'Genomics'
 ORDER BY 
     sf.file_name ASC
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files"
+FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+LEFT JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics';</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -397,14 +340,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,11 +703,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -781,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -790,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -799,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -807,7 +747,7 @@
       <c r="C6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/ICDC/TC01_ICDC_OSA01_StudyType-Genomics.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_OSA01_StudyType-Genomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62588107-9CC7-451D-AE79-1D12164DDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDFE52-C649-4C6D-BCEA-2D1B283B7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -64,48 +64,6 @@
   </si>
   <si>
     <t>TC01_ICDC_OSA01_StudyType-Genomics_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    DISTINCT c.case_record_id AS "Case ID",
-    st.clinical_study_designation AS "Study Code",
-    st.clinical_study_type AS "Study Type",
-    dmg.breed AS "Breed",
-    diag.disease_term AS "Diagnosis",
-    diag.stage_of_disease AS "Stage Of Disease",
-    CASE 
-        WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
-        THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
-        ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
-    END AS "Age", 
-    COALESCE(TRIM(dmg.sex), '') AS "Sex",   
-    COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
-    COALESCE(
-         CASE 
-            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
-            ELSE dmg.weight 
-        END, 
-    '') AS "Weight (kg)",                 
-    COALESCE(diag.best_response, '') AS "Response to Treatment",  
-    COALESCE(coh.cohort_description, '') AS "Cohort"  
-FROM 
-    df_case c
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-LEFT JOIN
-    df_cohort coh ON c."cohort.cohort_id" = coh.cohort_record_id
-WHERE
-    st.clinical_study_designation = 'OSA01' 
-    AND st.clinical_study_type = 'Genomics'
-ORDER BY 
-    c.case_record_id ASC
-LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -279,6 +237,48 @@
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
     st.clinical_study_designation = 'OSA01' AND st.clinical_study_type = 'Genomics';</t>
+  </si>
+  <si>
+    <t>SELECT
+    DISTINCT c.case_record_id AS "Case ID",
+    st.clinical_study_designation AS "Study Code",
+    st.clinical_study_type AS "Study Type",
+    dmg.breed AS "Breed",
+    diag.disease_term AS "Diagnosis",
+    diag.stage_of_disease AS "Stage Of Disease",
+    CASE 
+        WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
+        THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
+        ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
+    END AS "Age", 
+    COALESCE(TRIM(dmg.sex), '') AS "Sex",   
+    COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
+    COALESCE(
+         CASE 
+            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
+            ELSE dmg.weight 
+        END, 
+    '') AS "Weight (kg)",                 
+    COALESCE(diag.best_response, '') AS "Response to Treatment",  
+    COALESCE(coh.cohort_description, '') AS "Cohort"  
+FROM 
+    df_case c
+JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+LEFT JOIN
+    df_cohort coh ON c."cohort.cohort_record_id" = coh.cohort_record_id
+WHERE
+    st.clinical_study_designation = 'OSA01' 
+    AND st.clinical_study_type = 'Genomics'
+ORDER BY 
+    c.case_record_id ASC
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,10 +704,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
     </row>
